--- a/연구일지/졸업작품 주간 일지 35주차/벤치마크 프로그램 결과.xlsx
+++ b/연구일지/졸업작품 주간 일지 35주차/벤치마크 프로그램 결과.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\태균\Desktop\논문\1920-thesis\연구일지\졸업작품 주간 일지 35주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611DC66-168D-4CB5-AB35-AFD4760D1395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1C2027-B611-4B27-9E12-98169CF5770B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{A84826DA-47DA-419E-88B7-1DF0A963E082}"/>
+    <workbookView xWindow="10020" yWindow="570" windowWidth="21600" windowHeight="11385" xr2:uid="{A84826DA-47DA-419E-88B7-1DF0A963E082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>ATSP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,25 @@
     <t>try func</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>operation/millisecond sec(opms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -691,6 +710,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,27 +744,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1346,7 +1365,808 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>operation/millisecond sec(opms)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ATSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12627981897080401"/>
+                  <c:y val="5.0318382998810172E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1832196069667255E-2"/>
+                  <c:y val="-3.1016496992202987E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1832196069667255E-2"/>
+                  <c:y val="-3.5793763523049749E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1832196069667359E-2"/>
+                  <c:y val="-3.5793763523049749E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1832196069667359E-2"/>
+                  <c:y val="-3.5793763523049749E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$49:$G$49</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8675224401496411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68016786270784479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44041230342857463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10878460368893163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19378508369936268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDE6-4D75-BF35-05DD02BEA75F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LFSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9333603459295182E-2"/>
+                  <c:y val="-4.7543206049900241E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0123119119238538E-2"/>
+                  <c:y val="-5.0125563115590376E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6424220636912626E-2"/>
+                  <c:y val="-4.5348296584743444E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8533348769102682E-2"/>
+                  <c:y val="-4.0571030053896597E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8133297587341391E-2"/>
+                  <c:y val="-2.6239230461356029E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-EDE6-4D75-BF35-05DD02BEA75F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$49:$G$49</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>t1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>t2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>t4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>t6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>t12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0927407806943701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1890904562248332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1346592170165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.007601350083819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.144625097237494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDE6-4D75-BF35-05DD02BEA75F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="562488192"/>
+        <c:axId val="562483928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="562488192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562483928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562483928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562488192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1536,6 +2356,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1922,6 +3258,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E79AA60-60FB-48BC-B29C-ED5D9B0B37FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2227,10 +3599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49AF621-610C-47A9-827A-632457A7808A}">
-  <dimension ref="B1:P46"/>
+  <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="D44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59:O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,7 +3665,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2314,7 +3686,7 @@
       <c r="H5" s="26">
         <v>5962928.3999999994</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="51" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -2337,7 +3709,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +3728,7 @@
       <c r="H6" s="26">
         <v>5772806.3999999994</v>
       </c>
-      <c r="J6" s="45"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2377,7 +3749,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2396,7 +3768,7 @@
       <c r="H7" s="26">
         <v>6332744.3999999994</v>
       </c>
-      <c r="J7" s="45"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +3789,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2436,7 +3808,7 @@
       <c r="H8" s="26">
         <v>6114810</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2457,7 +3829,7 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +3848,7 @@
       <c r="H9" s="26">
         <v>6367540.7999999998</v>
       </c>
-      <c r="J9" s="45"/>
+      <c r="J9" s="52"/>
       <c r="K9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2497,7 +3869,7 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2516,7 +3888,7 @@
       <c r="H10" s="26">
         <v>6305949.5999999996</v>
       </c>
-      <c r="J10" s="45"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2537,7 +3909,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +3928,7 @@
       <c r="H11" s="26">
         <v>6352771.2000000002</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2577,7 +3949,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2596,7 +3968,7 @@
       <c r="H12" s="26">
         <v>6456057.5999999996</v>
       </c>
-      <c r="J12" s="45"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2617,7 +3989,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2636,7 +4008,7 @@
       <c r="H13" s="26">
         <v>6000268.7999999998</v>
       </c>
-      <c r="J13" s="45"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2657,7 +4029,7 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="46"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
@@ -2676,7 +4048,7 @@
       <c r="H14" s="29">
         <v>6258393.5999999996</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="53"/>
       <c r="K14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2697,10 +4069,10 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="7">
         <f>AVERAGE(D5:D14)</f>
         <v>642562.55999999994</v>
@@ -2721,10 +4093,10 @@
         <f t="shared" si="0"/>
         <v>6192427.0800000001</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="48"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="7">
         <f>AVERAGE(L5:L14)</f>
         <v>1013345.4</v>
@@ -2788,7 +4160,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2809,7 +4181,7 @@
       <c r="H18" s="26">
         <v>268482</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J18" s="51" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2832,7 +4204,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2851,7 +4223,7 @@
       <c r="H19" s="26">
         <v>270694.8</v>
       </c>
-      <c r="J19" s="45"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2872,7 +4244,7 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2891,7 +4263,7 @@
       <c r="H20" s="26">
         <v>273075.59999999998</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +4284,7 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="45"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +4303,7 @@
       <c r="H21" s="26">
         <v>272644.8</v>
       </c>
-      <c r="J21" s="45"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2952,7 +4324,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +4343,7 @@
       <c r="H22" s="26">
         <v>271065.59999999998</v>
       </c>
-      <c r="J22" s="45"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2992,7 +4364,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
@@ -3011,7 +4383,7 @@
       <c r="H23" s="26">
         <v>273338.39999999997</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="1" t="s">
         <v>11</v>
       </c>
@@ -3032,7 +4404,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3051,7 +4423,7 @@
       <c r="H24" s="26">
         <v>271628.39999999997</v>
       </c>
-      <c r="J24" s="45"/>
+      <c r="J24" s="52"/>
       <c r="K24" s="1" t="s">
         <v>12</v>
       </c>
@@ -3072,7 +4444,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3091,7 +4463,7 @@
       <c r="H25" s="26">
         <v>271076.39999999997</v>
       </c>
-      <c r="J25" s="45"/>
+      <c r="J25" s="52"/>
       <c r="K25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3112,7 +4484,7 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3131,7 +4503,7 @@
       <c r="H26" s="26">
         <v>272056.8</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="1" t="s">
         <v>14</v>
       </c>
@@ -3152,7 +4524,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="46"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +4543,7 @@
       <c r="H27" s="26">
         <v>271688.39999999997</v>
       </c>
-      <c r="J27" s="46"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="1" t="s">
         <v>15</v>
       </c>
@@ -3192,10 +4564,10 @@
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="48"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="7">
         <f>AVERAGE(D18:D27)</f>
         <v>488326.55999999994</v>
@@ -3216,10 +4588,10 @@
         <f t="shared" ref="H28" si="8">AVERAGE(H18:H27)</f>
         <v>271575.11999999994</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="48"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="7">
         <f>AVERAGE(L18:L27)</f>
         <v>388005.36</v>
@@ -3243,21 +4615,21 @@
     </row>
     <row r="29" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O30" s="54" t="s">
+      <c r="O30" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="55"/>
+      <c r="P30" s="48"/>
     </row>
     <row r="31" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="16"/>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
@@ -3390,13 +4762,13 @@
     <row r="39" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="16"/>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
@@ -3526,8 +4898,90 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
     </row>
+    <row r="47" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="16"/>
+      <c r="C48" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="33">
+        <f>C42</f>
+        <v>1.8675224401496411</v>
+      </c>
+      <c r="D50" s="35">
+        <f>D42</f>
+        <v>0.68016786270784479</v>
+      </c>
+      <c r="E50" s="35">
+        <f>E42</f>
+        <v>0.44041230342857463</v>
+      </c>
+      <c r="F50" s="35">
+        <f>F42</f>
+        <v>0.10878460368893163</v>
+      </c>
+      <c r="G50" s="36">
+        <f>G42</f>
+        <v>0.19378508369936268</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="39">
+        <f>C45</f>
+        <v>3.0927407806943701</v>
+      </c>
+      <c r="D51" s="40">
+        <f>D45</f>
+        <v>5.1890904562248332</v>
+      </c>
+      <c r="E51" s="40">
+        <f>E45</f>
+        <v>10.1346592170165</v>
+      </c>
+      <c r="F51" s="40">
+        <f>F45</f>
+        <v>15.007601350083819</v>
+      </c>
+      <c r="G51" s="41">
+        <f>G45</f>
+        <v>32.144625097237494</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="O30:P30"/>
